--- a/trend_results/Rivers/RangitawaStreamatdsHalcombeoxpond_4207427b4f.xlsx
+++ b/trend_results/Rivers/RangitawaStreamatdsHalcombeoxpond_4207427b4f.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.295676810411018</v>
+        <v>0.704323189588982</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.977249868051821</v>
+        <v>0.022750131948179</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.8610666089778189</v>
+        <v>0.138933391022181</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.994674020441229</v>
+        <v>0.005325979558771</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2812,6 +2812,1003 @@
         </is>
       </c>
       <c r="W26" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at ds Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>15</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1.26381579645951e-08</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.929936305732484</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-0.240824175824176</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-0.316163088803553</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.173892384267252</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-3.14802844214609</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>1811681.523</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5554500.976</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at ds Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.621916164430333</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.701219512195122</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.0545</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-0.0002859099804305</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.0017082827117245</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0013463241216098</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.524605468679869</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1811681.523</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5554500.976</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at ds Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.707004457852199</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.786585365853659</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>948.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-9.32294220064402</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-42.0829524878125</v>
+      </c>
+      <c r="M29" t="n">
+        <v>18.0034436903403</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.982914306868109</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1811681.523</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5554500.976</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at ds Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0009734019145387</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.103225806451613</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.8967741935483871</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.0612663913429693</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0032936321419782</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.0014857689618742</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0053473435813167</v>
+      </c>
+      <c r="N30" t="n">
+        <v>5.37591992898771</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1811681.523</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5554500.976</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at ds Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.289125879428118</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.051948051948052</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.37012987012987</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0001667047010497</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.0003761886959617</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.0007458766075406</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.8773931634197319</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1811681.523</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5554500.976</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at ds Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.38731513628778</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0584415584415584</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.9090909090909089</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0008526763267764</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0.0068697912801856</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.0057390235706227</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.255292313406124</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1811681.523</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5554500.976</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at ds Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.293852334339935</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-0.0021198578261478</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.0106254891713834</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0047148113928124</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.0292394182916939</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1811681.523</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5554500.976</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at ds Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.104364224126371</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.9390243902439021</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0155935960591133</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0028185143994344</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.033477574254279</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.92513531593992</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1811681.523</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5554500.976</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at ds Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.473956250419264</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.878048780487805</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.042</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0014295499021526</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.0503775838663</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0309985669370659</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.0700073409477298</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1811681.523</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5554500.976</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at ds Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.09733110411307851</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.835365853658537</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.1765</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0032087467002271</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0008196135895235</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.007454081632653</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.81798679899555</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1811681.523</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5554500.976</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at ds Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9999743126242731</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.957317073170732</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.305057965594615</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.494765450981544</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.177259394417263</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-4.57358269257294</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1811681.523</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5554500.976</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/RangitawaStreamatdsHalcombeoxpond_4207427b4f.xlsx
+++ b/trend_results/Rivers/RangitawaStreamatdsHalcombeoxpond_4207427b4f.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.704323189588982</v>
+        <v>0.560778711498519</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.964285714285714</v>
+        <v>0.982142857142857</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.47</v>
+        <v>5.7</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07525755494505509</v>
+        <v>0.0249829001367989</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.18430302596488</v>
+        <v>-0.183187990322654</v>
       </c>
       <c r="M2" t="n">
-        <v>0.31321247509978</v>
+        <v>0.319729996363022</v>
       </c>
       <c r="N2" t="n">
-        <v>1.37582367358419</v>
+        <v>0.438296493628051</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.958513469637794</v>
+        <v>0.226131977792684</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.859649122807018</v>
+        <v>0.8245614035087721</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.048</v>
+        <v>0.045</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0052428229665071</v>
+        <v>0.0029535040431266</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0172259573596889</v>
+        <v>-0.0019800812101678</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.0005912989791629</v>
+        <v>0.006714372097811</v>
       </c>
       <c r="N3" t="n">
-        <v>-10.92254784689</v>
+        <v>6.5633423180593</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.293245793611189</v>
+        <v>0.983311243253705</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -767,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>740</v>
+        <v>550</v>
       </c>
       <c r="K4" t="n">
-        <v>40.0413402387087</v>
+        <v>-91.230655657192</v>
       </c>
       <c r="L4" t="n">
-        <v>-84.6544438991842</v>
+        <v>-200.655681068827</v>
       </c>
       <c r="M4" t="n">
-        <v>167.50003475149</v>
+        <v>-21.8272317755256</v>
       </c>
       <c r="N4" t="n">
-        <v>5.41099192414982</v>
+        <v>-16.5873919376713</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.988026381264321</v>
+        <v>0.236351531311268</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -858,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0635173344223223</v>
+        <v>0.0622215874544633</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0153431954235966</v>
+        <v>0.0047420822083413</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0346066085666829</v>
+        <v>-0.0050612958497988</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.0029182322541505</v>
+        <v>0.0152178128846579</v>
       </c>
       <c r="N5" t="n">
-        <v>-24.1559183223602</v>
+        <v>7.62128129857149</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -929,7 +929,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.9239536837592101</v>
+        <v>0.192515854989737</v>
       </c>
       <c r="G6" t="n">
         <v>0.0175438596491228</v>
       </c>
       <c r="H6" t="n">
-        <v>0.543859649122807</v>
+        <v>0.614035087719298</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -952,16 +952,16 @@
         <v>0.019</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0012482911825017</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0027005741610978</v>
+        <v>-0.0007692403438804</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.0035664844151136</v>
       </c>
       <c r="N6" t="n">
-        <v>-6.56995359211426</v>
+        <v>5.28123192596877</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,31 +1028,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.5</v>
+        <v>0.184880240211656</v>
       </c>
       <c r="G7" t="n">
         <v>0.0175438596491228</v>
       </c>
       <c r="H7" t="n">
-        <v>0.947368421052632</v>
+        <v>0.9649122807017541</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.243</v>
+        <v>0.251</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0004993164730006</v>
+        <v>0.0160549450549451</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0415210801164727</v>
+        <v>-0.0254478386784755</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0209707183934851</v>
+        <v>0.0326946213107602</v>
       </c>
       <c r="N7" t="n">
-        <v>0.205480030041434</v>
+        <v>6.39639245216935</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.022750131948179</v>
+        <v>0.002809441074419</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.714285714285714</v>
+        <v>0.696428571428571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.24</v>
+        <v>7.21</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0265878070973613</v>
+        <v>-0.0492250673854446</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0699686815578634</v>
+        <v>-0.0790081032101419</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.009509495362756601</v>
+        <v>-0.0272948778384987</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.367234904659686</v>
+        <v>-0.682733250838344</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1206,31 +1206,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.949948780199963</v>
+        <v>0.673089756838225</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.929824561403509</v>
+        <v>0.947368421052632</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.736</v>
+        <v>0.487</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.111668789808917</v>
+        <v>-0.0240824175824176</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.246074114834723</v>
+        <v>-0.101900242238031</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0137120723702443</v>
+        <v>0.0375340602886444</v>
       </c>
       <c r="N9" t="n">
-        <v>-15.1723899196898</v>
+        <v>-4.94505494505494</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.902896791811754</v>
+        <v>0.552043600863612</v>
       </c>
       <c r="G10" t="n">
-        <v>0.087719298245614</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.298245614035088</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>1.26</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.31848031837256</v>
+        <v>-0.0061407434402332</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.802747252747253</v>
+        <v>-0.12341875807846</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.115905106683097</v>
       </c>
       <c r="N10" t="n">
-        <v>-7.96200795931399</v>
+        <v>-0.487360590494702</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1373,14 +1373,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.993141553960457</v>
+        <v>0.382479927714759</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.947368421052632</v>
+        <v>0.912280701754386</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.64</v>
+        <v>0.139</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.195634106617475</v>
+        <v>0.0055188873626373</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.331935311426467</v>
+        <v>-0.008491086369568499</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.0733858692204912</v>
+        <v>0.0140480769230769</v>
       </c>
       <c r="N11" t="n">
-        <v>-11.92890894009</v>
+        <v>3.97042256304846</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.99161683619966</v>
+        <v>0.5</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8947368421052631</v>
+        <v>0.982456140350877</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.147</v>
+        <v>4.1</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0226435309973046</v>
+        <v>0.0200686813186813</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0436527141149785</v>
+        <v>-0.51188292608263</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0069951391839469</v>
+        <v>0.277799157924156</v>
       </c>
       <c r="N12" t="n">
-        <v>-15.4037625832004</v>
+        <v>0.489480032162959</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1555,11 +1555,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.771402409541307</v>
+        <v>0.427723999081393</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.982456140350877</v>
+        <v>0.795454545454545</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>4.78</v>
+        <v>0.335</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.218333041369869</v>
+        <v>-0.002813550420168</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.741596199284426</v>
+        <v>-0.0541009309566701</v>
       </c>
       <c r="M13" t="n">
-        <v>0.225143283357179</v>
+        <v>0.0242937274504725</v>
       </c>
       <c r="N13" t="n">
-        <v>-4.56763684874204</v>
+        <v>-0.839865797065095</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1646,14 +1646,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>10</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.059266164616939</v>
+        <v>0.854743991218061</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.795918367346939</v>
+        <v>0.9459459459459461</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.35</v>
+        <v>5.97</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.040450935782967</v>
+        <v>0.0535164835164834</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.111217461941297</v>
+        <v>-0.0288753451939663</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.160000790139708</v>
       </c>
       <c r="N14" t="n">
-        <v>-11.5574102237049</v>
+        <v>0.896423509488834</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.138933391022181</v>
+        <v>0.9999953500947369</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.936936936936937</v>
+        <v>0.786324786324786</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>6.09</v>
+        <v>0.059</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0581608280254776</v>
+        <v>-0.0073187727019949</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.176963523617881</v>
+        <v>-0.0138399744855887</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0209398904596158</v>
+        <v>-0.0035951594161541</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.955021806658089</v>
+        <v>-12.4046994949067</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1828,14 +1828,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.999991374627682</v>
+        <v>0.999976827289679</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.829059829059829</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.064</v>
+        <v>870</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0074493368902039</v>
+        <v>-102.195965833232</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0124959287888402</v>
+        <v>-159.138862433627</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.0042877861944851</v>
+        <v>-61.4512511253774</v>
       </c>
       <c r="N16" t="n">
-        <v>-11.6395888909436</v>
+        <v>-11.746662739452</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.926314756702454</v>
+        <v>0.576832660031419</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.055045871559633</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7692307692307691</v>
+        <v>0.954128440366973</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>992</v>
+        <v>0.0747490526712699</v>
       </c>
       <c r="K17" t="n">
-        <v>-43.4128436952866</v>
+        <v>-0.000469304979891</v>
       </c>
       <c r="L17" t="n">
-        <v>-93.9774458114743</v>
+        <v>-0.0047438932077628</v>
       </c>
       <c r="M17" t="n">
-        <v>4.69028346339896</v>
+        <v>0.0037896928014854</v>
       </c>
       <c r="N17" t="n">
-        <v>-4.37629472734744</v>
+        <v>-0.6278407058280741</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.410877754330323</v>
+        <v>0.752140606763398</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0825688073394495</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="H18" t="n">
-        <v>0.917431192660551</v>
+        <v>0.47008547008547</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0713856646502191</v>
+        <v>0.02</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0003852442603402</v>
+        <v>-0.0003529558359552</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0033632595277727</v>
+        <v>-0.0012722895933915</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0043593647452191</v>
+        <v>0.0004626744106291</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5396661391722321</v>
+        <v>-1.76477917977636</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.9673519206761521</v>
+        <v>0.278719637612447</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0170940170940171</v>
+        <v>0.0256410256410256</v>
       </c>
       <c r="H19" t="n">
-        <v>0.444444444444444</v>
+        <v>0.9401709401709401</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02</v>
+        <v>0.2925</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0009970427661509999</v>
+        <v>0.0040009128251939</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0017227714241426</v>
+        <v>-0.0089296285708767</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.000111254949741</v>
+        <v>0.0139019289461326</v>
       </c>
       <c r="N19" t="n">
-        <v>-4.98521383075523</v>
+        <v>1.36783344451076</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2207,31 +2207,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.296906896889827</v>
+        <v>0.012353285661632</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0341880341880342</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.931623931623932</v>
+        <v>0.552631578947368</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2925</v>
+        <v>7.23</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0032693860825204</v>
+        <v>-0.0100343406593404</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0085524055137947</v>
+        <v>-0.0199414249702019</v>
       </c>
       <c r="M20" t="n">
-        <v>0.009305296098936501</v>
+        <v>-0.0050133144823866</v>
       </c>
       <c r="N20" t="n">
-        <v>1.11773883163092</v>
+        <v>-0.138787560986728</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2269,11 +2269,7 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2283,7 +2279,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2298,31 +2294,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.005325979558771</v>
+        <v>0.8796619521192079</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.508771929824561</v>
+        <v>0.9401709401709401</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>7.26</v>
+        <v>1.07</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.0133791208791209</v>
+        <v>-0.0240248041432252</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0205497639404109</v>
+        <v>-0.0690955347383401</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.0066469517743403</v>
+        <v>0.009063411388296199</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.184285411558139</v>
+        <v>-2.24530879843226</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2327,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,7 +2356,11 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr"/>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2370,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2385,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.605134047638339</v>
+        <v>0.999767990763701</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.923076923076923</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.88</v>
+        <v>2.1</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0030893800688129</v>
+        <v>-0.149721624558673</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0391554409883115</v>
+        <v>-0.220146316648275</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0284020055356161</v>
+        <v>-0.07507274398972411</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.351065916910566</v>
+        <v>-7.12960116946061</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2461,46 +2461,46 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.999999962084505</v>
+        <v>0.999993036006252</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0427350427350427</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.290598290598291</v>
+        <v>0.9145299145299149</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>7</v>
+        <v>0.208</v>
       </c>
       <c r="K23" t="n">
-        <v>-1.00343406593407</v>
+        <v>-0.0207544815795715</v>
       </c>
       <c r="L23" t="n">
-        <v>-1.37312030075188</v>
+        <v>-0.0327794117769439</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.716921516898482</v>
+        <v>-0.0117567594869892</v>
       </c>
       <c r="N23" t="n">
-        <v>-14.3347723704867</v>
+        <v>-9.97811614402476</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2567,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.993413271152043</v>
+        <v>0.999999100971773</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.931623931623932</v>
+        <v>0.9401709401709401</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.05</v>
+        <v>5.64</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.08129855063044331</v>
+        <v>-0.559183135554541</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.164382753105692</v>
+        <v>-0.789206807818945</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.0317083779416028</v>
+        <v>-0.317436113969417</v>
       </c>
       <c r="N24" t="n">
-        <v>-3.9657829575826</v>
+        <v>-9.914594602030879</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2643,14 +2643,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.9999145504224169</v>
+        <v>0.001555186415166</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.88034188034188</v>
+        <v>0.710526315789474</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.216</v>
+        <v>0.42</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.018288833813987</v>
+        <v>-0.0738582116252615</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0302778260438367</v>
+        <v>-0.122943382265489</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.0090684969830444</v>
+        <v>-0.02740544187078</v>
       </c>
       <c r="N25" t="n">
-        <v>-8.46705269166066</v>
+        <v>-17.5852884822051</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2734,14 +2734,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.9999971802062581</v>
+        <v>3.2193941401637e-07</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.957264957264957</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>6.54</v>
+        <v>7.59</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.617091028237817</v>
+        <v>-0.192616641337386</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.895472557881038</v>
+        <v>-0.260892857142857</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.375447027978497</v>
+        <v>-0.133459581264641</v>
       </c>
       <c r="N26" t="n">
-        <v>-9.43564263360577</v>
+        <v>-2.53776866057162</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.26381579645951e-08</v>
+        <v>0.615946477900092</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.929936305732484</v>
+        <v>0.676136363636364</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>7.65</v>
+        <v>0.0525</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.240824175824176</v>
+        <v>-0.0002504571428571</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.316163088803553</v>
+        <v>-0.0013464443558658</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.173892384267252</v>
+        <v>0.0012024701542938</v>
       </c>
       <c r="N27" t="n">
-        <v>-3.14802844214609</v>
+        <v>-0.477061224489796</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2916,14 +2916,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.621916164430333</v>
+        <v>0.992526242556823</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.701219512195122</v>
+        <v>0.7840909090909089</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0545</v>
+        <v>855</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0002859099804305</v>
+        <v>-34.4671053973997</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0017082827117245</v>
+        <v>-65.4531415776593</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0013463241216098</v>
+        <v>-10.8042929268797</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.524605468679869</v>
+        <v>-4.0312403973567</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.707004457852199</v>
+        <v>0.0001757458060435</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0958083832335329</v>
       </c>
       <c r="H29" t="n">
-        <v>0.786585365853659</v>
+        <v>0.904191616766467</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>948.5</v>
+        <v>0.0622649705531497</v>
       </c>
       <c r="K29" t="n">
-        <v>-9.32294220064402</v>
+        <v>0.0035667789109907</v>
       </c>
       <c r="L29" t="n">
-        <v>-42.0829524878125</v>
+        <v>0.0018910596698125</v>
       </c>
       <c r="M29" t="n">
-        <v>18.0034436903403</v>
+        <v>0.0055523689365568</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.982914306868109</v>
+        <v>5.72838769424314</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3098,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0009734019145387</v>
+        <v>0.220169245069128</v>
       </c>
       <c r="G30" t="n">
-        <v>0.103225806451613</v>
+        <v>0.0481927710843374</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8967741935483871</v>
+        <v>0.379518072289157</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0612663913429693</v>
+        <v>0.019</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0032936321419782</v>
+        <v>0.0002496582365003</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0014857689618742</v>
+        <v>-0.0002276822603127</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0053473435813167</v>
+        <v>0.000751508989199</v>
       </c>
       <c r="N30" t="n">
-        <v>5.37591992898771</v>
+        <v>1.31399071842285</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3204,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.289125879428118</v>
+        <v>0.461661088395773</v>
       </c>
       <c r="G31" t="n">
-        <v>0.051948051948052</v>
+        <v>0.0542168674698795</v>
       </c>
       <c r="H31" t="n">
-        <v>0.37012987012987</v>
+        <v>0.909638554216867</v>
       </c>
       <c r="I31" t="n">
         <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>0.019</v>
+        <v>0.334</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0001667047010497</v>
+        <v>0.000207854199372</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0003761886959617</v>
+        <v>-0.0077320601885345</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0007458766075406</v>
+        <v>0.0054931493650231</v>
       </c>
       <c r="N31" t="n">
-        <v>0.8773931634197319</v>
+        <v>0.0622317962191783</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3291,35 +3291,35 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.38731513628778</v>
+        <v>0.084997290041083</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0584415584415584</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9090909090909089</v>
+        <v>0.47093023255814</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.334</v>
+        <v>7.24</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0008526763267764</v>
+        <v>-0.0065106486620392</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0068697912801856</v>
+        <v>-0.0132761236749108</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0057390235706227</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0.255292313406124</v>
+        <v>-0.0899260864922552</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3357,11 +3357,7 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3371,7 +3367,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3386,31 +3382,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.293852334339935</v>
+        <v>0.161873021713892</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.475</v>
+        <v>0.954545454545455</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>7.25</v>
+        <v>0.8098</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0021198578261478</v>
+        <v>0.0114212972744559</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0106254891713834</v>
+        <v>-0.0059635783510388</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0047148113928124</v>
+        <v>0.0283701160985274</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.0292394182916939</v>
+        <v>1.4103849437461</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3415,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,7 +3444,11 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3473,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.104364224126371</v>
+        <v>0.627105234628898</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9390243902439021</v>
+        <v>0.8409090909090911</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.8100000000000001</v>
+        <v>2.042</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0155935960591133</v>
+        <v>-0.0066895604395604</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0028185143994344</v>
+        <v>-0.0535736486835946</v>
       </c>
       <c r="M34" t="n">
-        <v>0.033477574254279</v>
+        <v>0.0180646690389568</v>
       </c>
       <c r="N34" t="n">
-        <v>1.92513531593992</v>
+        <v>-0.32759845443489</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3564,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.473956250419264</v>
+        <v>0.429849430059029</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.878048780487805</v>
+        <v>0.8409090909090911</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.042</v>
+        <v>0.1755</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0014295499021526</v>
+        <v>0.0005017170329669999</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0503775838663</v>
+        <v>-0.003442920827875</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0309985669370659</v>
+        <v>0.0040076205060861</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0700073409477298</v>
+        <v>0.285878651263267</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3640,14 +3640,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.09733110411307851</v>
+        <v>0.9999979955987151</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.835365853658537</v>
+        <v>0.943181818181818</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1765</v>
+        <v>6.405</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0032087467002271</v>
+        <v>-0.305057965594615</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0008196135895235</v>
+        <v>-0.475996578704558</v>
       </c>
       <c r="M36" t="n">
-        <v>0.007454081632653</v>
+        <v>-0.193722827430725</v>
       </c>
       <c r="N36" t="n">
-        <v>1.81798679899555</v>
+        <v>-4.76280976728517</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3718,97 +3718,6 @@
         </is>
       </c>
       <c r="W36" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Rangitawa Stream at ds Halcombe oxpond</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>15</v>
-      </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>0.9999743126242731</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.957317073170732</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-0.305057965594615</v>
-      </c>
-      <c r="L37" t="n">
-        <v>-0.494765450981544</v>
-      </c>
-      <c r="M37" t="n">
-        <v>-0.177259394417263</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-4.57358269257294</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>Virtually certain improving</t>
-        </is>
-      </c>
-      <c r="Q37" t="n">
-        <v>1811681.523</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5554500.976</v>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>Manawatu District</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>Coastal Rangitikei</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>Rang_4a</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/RangitawaStreamatdsHalcombeoxpond_4207427b4f.xlsx
+++ b/trend_results/Rivers/RangitawaStreamatdsHalcombeoxpond_4207427b4f.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="61">
   <si>
     <t>site name</t>
   </si>
@@ -127,40 +127,49 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
+    <t>WARNING: Sen slope influenced by censored values</t>
+  </si>
+  <si>
     <t>Impact</t>
   </si>
   <si>
     <t>As likely as not increasing</t>
   </si>
   <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
     <t>Unlikely improving</t>
   </si>
   <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
     <t>Extremely likely improving</t>
   </si>
   <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
     <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely increasing</t>
   </si>
   <si>
     <t>Manawatu District</t>
@@ -639,37 +648,37 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.560778711498519</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.982142857142857</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.7</v>
+        <v>5.36</v>
       </c>
       <c r="K2">
-        <v>0.0249829001367989</v>
+        <v>0.0969986263736264</v>
       </c>
       <c r="L2">
-        <v>-0.183187990322654</v>
+        <v>-0.305619464574144</v>
       </c>
       <c r="M2">
-        <v>0.319729996363022</v>
+        <v>0.292794634273779</v>
       </c>
       <c r="N2">
-        <v>0.438296493628051</v>
+        <v>1.8096758651796</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q2">
         <v>1811681.523</v>
@@ -678,19 +687,19 @@
         <v>5554500.976</v>
       </c>
       <c r="S2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -704,43 +713,43 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.226131977792684</v>
+        <v>0.0006509281795687</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.8245614035087721</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.045</v>
+        <v>0.047</v>
       </c>
       <c r="K3">
-        <v>0.0029535040431266</v>
+        <v>0.0132679313985715</v>
       </c>
       <c r="L3">
-        <v>-0.0019800812101678</v>
+        <v>0.0065997919286447</v>
       </c>
       <c r="M3">
-        <v>0.006714372097811</v>
+        <v>0.0205453125</v>
       </c>
       <c r="N3">
-        <v>6.5633423180593</v>
+        <v>28.2296412735564</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q3">
         <v>1811681.523</v>
@@ -749,19 +758,19 @@
         <v>5554500.976</v>
       </c>
       <c r="S3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -781,37 +790,37 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>0.983311243253705</v>
+        <v>0.863150502844641</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.859649122807018</v>
+        <v>0.9649122807017541</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>550</v>
+        <v>480.4</v>
       </c>
       <c r="K4">
-        <v>-91.230655657192</v>
+        <v>-45.2119927703875</v>
       </c>
       <c r="L4">
-        <v>-200.655681068827</v>
+        <v>-130.896983247815</v>
       </c>
       <c r="M4">
-        <v>-21.8272317755256</v>
+        <v>35.0213609495287</v>
       </c>
       <c r="N4">
-        <v>-16.5873919376713</v>
+        <v>-9.41132239183753</v>
       </c>
       <c r="O4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q4">
         <v>1811681.523</v>
@@ -820,19 +829,19 @@
         <v>5554500.976</v>
       </c>
       <c r="S4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -852,7 +861,7 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>0.236351531311268</v>
+        <v>0.07436006954367309</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -867,22 +876,22 @@
         <v>0.0622215874544633</v>
       </c>
       <c r="K5">
-        <v>0.0047420822083413</v>
+        <v>0.0101035998920155</v>
       </c>
       <c r="L5">
-        <v>-0.0050612958497988</v>
+        <v>-0.0013613369592596</v>
       </c>
       <c r="M5">
-        <v>0.0152178128846579</v>
+        <v>0.0236836474792879</v>
       </c>
       <c r="N5">
-        <v>7.62128129857149</v>
+        <v>16.2380940528234</v>
       </c>
       <c r="O5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Q5">
         <v>1811681.523</v>
@@ -891,19 +900,19 @@
         <v>5554500.976</v>
       </c>
       <c r="S5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -923,13 +932,13 @@
         <v>36</v>
       </c>
       <c r="F6">
-        <v>0.192515854989737</v>
+        <v>0.247413888993437</v>
       </c>
       <c r="G6">
-        <v>0.0175438596491228</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="H6">
-        <v>0.614035087719298</v>
+        <v>0.649122807017544</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -938,22 +947,22 @@
         <v>0.019</v>
       </c>
       <c r="K6">
-        <v>0.001003434065934</v>
+        <v>0.0010398776546629</v>
       </c>
       <c r="L6">
-        <v>-0.0007692403438804</v>
+        <v>-0.0012902381596366</v>
       </c>
       <c r="M6">
-        <v>0.0035664844151136</v>
+        <v>0.0038845194426106</v>
       </c>
       <c r="N6">
-        <v>5.28123192596877</v>
+        <v>5.47304028769986</v>
       </c>
       <c r="O6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="Q6">
         <v>1811681.523</v>
@@ -962,19 +971,19 @@
         <v>5554500.976</v>
       </c>
       <c r="S6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -994,7 +1003,7 @@
         <v>36</v>
       </c>
       <c r="F7">
-        <v>0.184880240211656</v>
+        <v>0.227400484503121</v>
       </c>
       <c r="G7">
         <v>0.0175438596491228</v>
@@ -1006,25 +1015,25 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.251</v>
+        <v>0.272</v>
       </c>
       <c r="K7">
-        <v>0.0160549450549451</v>
+        <v>0.0210721153846154</v>
       </c>
       <c r="L7">
-        <v>-0.0254478386784755</v>
+        <v>-0.0193195338796004</v>
       </c>
       <c r="M7">
-        <v>0.0326946213107602</v>
+        <v>0.0406667065477788</v>
       </c>
       <c r="N7">
-        <v>6.39639245216935</v>
+        <v>7.74710124434389</v>
       </c>
       <c r="O7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="Q7">
         <v>1811681.523</v>
@@ -1033,19 +1042,19 @@
         <v>5554500.976</v>
       </c>
       <c r="S7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1065,37 +1074,37 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>0.002809441074419</v>
+        <v>0.593737865342316</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.696428571428571</v>
+        <v>0.672727272727273</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.21</v>
+        <v>7.16</v>
       </c>
       <c r="K8">
-        <v>-0.0492250673854446</v>
+        <v>0.0100343406593404</v>
       </c>
       <c r="L8">
-        <v>-0.0790081032101419</v>
+        <v>-0.0301030219780218</v>
       </c>
       <c r="M8">
-        <v>-0.0272948778384987</v>
+        <v>0.0349406017279087</v>
       </c>
       <c r="N8">
-        <v>-0.682733250838344</v>
+        <v>0.140144422616487</v>
       </c>
       <c r="O8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q8">
         <v>1811681.523</v>
@@ -1104,16 +1113,16 @@
         <v>5554500.976</v>
       </c>
       <c r="S8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1133,37 +1142,37 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.673089756838225</v>
+        <v>0.440584675985635</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.947368421052632</v>
+        <v>0.982456140350877</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.487</v>
+        <v>0.51</v>
       </c>
       <c r="K9">
-        <v>-0.0240824175824176</v>
+        <v>0.0200686813186813</v>
       </c>
       <c r="L9">
-        <v>-0.101900242238031</v>
+        <v>-0.0579093367657538</v>
       </c>
       <c r="M9">
-        <v>0.0375340602886444</v>
+        <v>0.117195644892481</v>
       </c>
       <c r="N9">
-        <v>-4.94505494505494</v>
+        <v>3.93503555268261</v>
       </c>
       <c r="O9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q9">
         <v>1811681.523</v>
@@ -1172,19 +1181,19 @@
         <v>5554500.976</v>
       </c>
       <c r="S9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1204,37 +1213,37 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.552043600863612</v>
+        <v>0.337232649729222</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.842105263157895</v>
+        <v>0.859649122807018</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.26</v>
+        <v>1.45</v>
       </c>
       <c r="K10">
-        <v>-0.0061407434402332</v>
+        <v>0.0380510037981552</v>
       </c>
       <c r="L10">
-        <v>-0.12341875807846</v>
+        <v>-0.110277219192489</v>
       </c>
       <c r="M10">
-        <v>0.115905106683097</v>
+        <v>0.212703744772638</v>
       </c>
       <c r="N10">
-        <v>-0.487360590494702</v>
+        <v>2.62420715849346</v>
       </c>
       <c r="O10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q10">
         <v>1811681.523</v>
@@ -1243,19 +1252,19 @@
         <v>5554500.976</v>
       </c>
       <c r="S10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1269,43 +1278,43 @@
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.382479927714759</v>
+        <v>0.0019595183748427</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.912280701754386</v>
+        <v>0.929824561403509</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.139</v>
+        <v>0.152</v>
       </c>
       <c r="K11">
-        <v>0.0055188873626373</v>
+        <v>0.0288402220819932</v>
       </c>
       <c r="L11">
-        <v>-0.008491086369568499</v>
+        <v>0.0130446428571429</v>
       </c>
       <c r="M11">
-        <v>0.0140480769230769</v>
+        <v>0.0537350665278539</v>
       </c>
       <c r="N11">
-        <v>3.97042256304846</v>
+        <v>18.9738303171008</v>
       </c>
       <c r="O11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q11">
         <v>1811681.523</v>
@@ -1314,19 +1323,19 @@
         <v>5554500.976</v>
       </c>
       <c r="S11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1346,37 +1355,37 @@
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.227400484503121</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.982456140350877</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.1</v>
+        <v>4.87</v>
       </c>
       <c r="K12">
-        <v>0.0200686813186813</v>
+        <v>0.170583791208791</v>
       </c>
       <c r="L12">
-        <v>-0.51188292608263</v>
+        <v>-0.266568715823595</v>
       </c>
       <c r="M12">
-        <v>0.277799157924156</v>
+        <v>0.540151759624783</v>
       </c>
       <c r="N12">
-        <v>0.489480032162959</v>
+        <v>3.50274725274725</v>
       </c>
       <c r="O12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q12">
         <v>1811681.523</v>
@@ -1385,19 +1394,19 @@
         <v>5554500.976</v>
       </c>
       <c r="S12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1414,40 +1423,40 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13">
-        <v>0.427723999081393</v>
+        <v>0.532529984975005</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.795454545454545</v>
+        <v>0.75</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.335</v>
+        <v>0.32</v>
       </c>
       <c r="K13">
-        <v>-0.002813550420168</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>-0.0541009309566701</v>
+        <v>-0.0313899598338919</v>
       </c>
       <c r="M13">
-        <v>0.0242937274504725</v>
+        <v>0.0269573692071061</v>
       </c>
       <c r="N13">
-        <v>-0.839865797065095</v>
+        <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q13">
         <v>1811681.523</v>
@@ -1456,19 +1465,19 @@
         <v>5554500.976</v>
       </c>
       <c r="S13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1488,37 +1497,37 @@
         <v>36</v>
       </c>
       <c r="F14">
-        <v>0.854743991218061</v>
+        <v>0.847105222563928</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.9459459459459461</v>
+        <v>0.947368421052632</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.97</v>
+        <v>5.575</v>
       </c>
       <c r="K14">
-        <v>0.0535164835164834</v>
+        <v>0.0549248120300753</v>
       </c>
       <c r="L14">
-        <v>-0.0288753451939663</v>
+        <v>-0.0286757926301311</v>
       </c>
       <c r="M14">
-        <v>0.160000790139708</v>
+        <v>0.157520050848312</v>
       </c>
       <c r="N14">
-        <v>0.896423509488834</v>
+        <v>0.985198422064132</v>
       </c>
       <c r="O14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q14">
         <v>1811681.523</v>
@@ -1527,19 +1536,19 @@
         <v>5554500.976</v>
       </c>
       <c r="S14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1559,7 +1568,7 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.9999953500947369</v>
+        <v>0.999186598718642</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1571,25 +1580,25 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.059</v>
+        <v>0.06</v>
       </c>
       <c r="K15">
-        <v>-0.0073187727019949</v>
+        <v>-0.0052801921929897</v>
       </c>
       <c r="L15">
-        <v>-0.0138399744855887</v>
+        <v>-0.0110266576949745</v>
       </c>
       <c r="M15">
-        <v>-0.0035951594161541</v>
+        <v>-0.002384754296984</v>
       </c>
       <c r="N15">
-        <v>-12.4046994949067</v>
+        <v>-8.80032032164952</v>
       </c>
       <c r="O15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q15">
         <v>1811681.523</v>
@@ -1598,19 +1607,19 @@
         <v>5554500.976</v>
       </c>
       <c r="S15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1630,37 +1639,37 @@
         <v>36</v>
       </c>
       <c r="F16">
-        <v>0.999976827289679</v>
+        <v>0.99969040716387</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.777777777777778</v>
+        <v>0.811965811965812</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>870</v>
+        <v>740</v>
       </c>
       <c r="K16">
-        <v>-102.195965833232</v>
+        <v>-77.3875946924437</v>
       </c>
       <c r="L16">
-        <v>-159.138862433627</v>
+        <v>-120.979662191716</v>
       </c>
       <c r="M16">
-        <v>-61.4512511253774</v>
+        <v>-41.3796540303402</v>
       </c>
       <c r="N16">
-        <v>-11.746662739452</v>
+        <v>-10.4577830665464</v>
       </c>
       <c r="O16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q16">
         <v>1811681.523</v>
@@ -1669,19 +1678,19 @@
         <v>5554500.976</v>
       </c>
       <c r="S16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1701,37 +1710,37 @@
         <v>36</v>
       </c>
       <c r="F17">
-        <v>0.576832660031419</v>
+        <v>0.720375405929167</v>
       </c>
       <c r="G17">
-        <v>0.055045871559633</v>
+        <v>0.036697247706422</v>
       </c>
       <c r="H17">
-        <v>0.954128440366973</v>
+        <v>0.972477064220184</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.0747490526712699</v>
+        <v>0.0748966357149924</v>
       </c>
       <c r="K17">
-        <v>-0.000469304979891</v>
+        <v>-0.0016826984178469</v>
       </c>
       <c r="L17">
-        <v>-0.0047438932077628</v>
+        <v>-0.0065553281880007</v>
       </c>
       <c r="M17">
-        <v>0.0037896928014854</v>
+        <v>0.0028554752443082</v>
       </c>
       <c r="N17">
-        <v>-0.6278407058280741</v>
+        <v>-2.24669426307776</v>
       </c>
       <c r="O17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q17">
         <v>1811681.523</v>
@@ -1740,19 +1749,19 @@
         <v>5554500.976</v>
       </c>
       <c r="S17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1772,13 +1781,13 @@
         <v>36</v>
       </c>
       <c r="F18">
-        <v>0.752140606763398</v>
+        <v>0.798004813341439</v>
       </c>
       <c r="G18">
-        <v>0.0170940170940171</v>
+        <v>0.0341880341880342</v>
       </c>
       <c r="H18">
-        <v>0.47008547008547</v>
+        <v>0.478632478632479</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1787,19 +1796,19 @@
         <v>0.02</v>
       </c>
       <c r="K18">
-        <v>-0.0003529558359552</v>
+        <v>-0.0004403333367245</v>
       </c>
       <c r="L18">
-        <v>-0.0012722895933915</v>
+        <v>-0.0013848888631725</v>
       </c>
       <c r="M18">
-        <v>0.0004626744106291</v>
+        <v>0.0003921972629059</v>
       </c>
       <c r="N18">
-        <v>-1.76477917977636</v>
+        <v>-2.2016666836226</v>
       </c>
       <c r="O18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P18" t="s">
         <v>42</v>
@@ -1811,19 +1820,19 @@
         <v>5554500.976</v>
       </c>
       <c r="S18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1843,37 +1852,37 @@
         <v>36</v>
       </c>
       <c r="F19">
-        <v>0.278719637612447</v>
+        <v>0.364471014155039</v>
       </c>
       <c r="G19">
-        <v>0.0256410256410256</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="H19">
-        <v>0.9401709401709401</v>
+        <v>0.931623931623932</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.2925</v>
+        <v>0.307</v>
       </c>
       <c r="K19">
-        <v>0.0040009128251939</v>
+        <v>0.0025454223742922</v>
       </c>
       <c r="L19">
-        <v>-0.0089296285708767</v>
+        <v>-0.0154741066134753</v>
       </c>
       <c r="M19">
-        <v>0.0139019289461326</v>
+        <v>0.0119395978225911</v>
       </c>
       <c r="N19">
-        <v>1.36783344451076</v>
+        <v>0.8291278092157111</v>
       </c>
       <c r="O19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P19" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Q19">
         <v>1811681.523</v>
@@ -1882,19 +1891,19 @@
         <v>5554500.976</v>
       </c>
       <c r="S19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1914,7 +1923,7 @@
         <v>36</v>
       </c>
       <c r="F20">
-        <v>0.012353285661632</v>
+        <v>0.020155330943518</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1926,25 +1935,25 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.23</v>
+        <v>7.215</v>
       </c>
       <c r="K20">
-        <v>-0.0100343406593404</v>
+        <v>-0.009986329460013601</v>
       </c>
       <c r="L20">
-        <v>-0.0199414249702019</v>
+        <v>-0.0200062048675963</v>
       </c>
       <c r="M20">
-        <v>-0.0050133144823866</v>
+        <v>-0.0040109740101684</v>
       </c>
       <c r="N20">
-        <v>-0.138787560986728</v>
+        <v>-0.138410664726454</v>
       </c>
       <c r="O20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q20">
         <v>1811681.523</v>
@@ -1953,16 +1962,16 @@
         <v>5554500.976</v>
       </c>
       <c r="S20" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1982,7 +1991,7 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <v>0.8796619521192079</v>
+        <v>0.975767872610862</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1994,25 +2003,25 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.07</v>
+        <v>1.153</v>
       </c>
       <c r="K21">
-        <v>-0.0240248041432252</v>
+        <v>-0.051121827129593</v>
       </c>
       <c r="L21">
-        <v>-0.0690955347383401</v>
+        <v>-0.102468386849273</v>
       </c>
       <c r="M21">
-        <v>0.009063411388296199</v>
+        <v>-0.0075452800641517</v>
       </c>
       <c r="N21">
-        <v>-2.24530879843226</v>
+        <v>-4.43380981176001</v>
       </c>
       <c r="O21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P21" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="Q21">
         <v>1811681.523</v>
@@ -2021,19 +2030,19 @@
         <v>5554500.976</v>
       </c>
       <c r="S21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T21" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W21" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2053,37 +2062,37 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>0.999767990763701</v>
+        <v>0.999978185294395</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.871794871794872</v>
+        <v>0.837606837606838</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>2.1</v>
+        <v>2.23</v>
       </c>
       <c r="K22">
-        <v>-0.149721624558673</v>
+        <v>-0.192283528195489</v>
       </c>
       <c r="L22">
-        <v>-0.220146316648275</v>
+        <v>-0.273037510221723</v>
       </c>
       <c r="M22">
-        <v>-0.07507274398972411</v>
+        <v>-0.112209328460324</v>
       </c>
       <c r="N22">
-        <v>-7.12960116946061</v>
+        <v>-8.62257973970801</v>
       </c>
       <c r="O22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q22">
         <v>1811681.523</v>
@@ -2092,19 +2101,19 @@
         <v>5554500.976</v>
       </c>
       <c r="S22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U22" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V22" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2124,13 +2133,13 @@
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.999993036006252</v>
+        <v>0.999371070004941</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.9145299145299149</v>
+        <v>0.897435897435897</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2139,22 +2148,22 @@
         <v>0.208</v>
       </c>
       <c r="K23">
-        <v>-0.0207544815795715</v>
+        <v>-0.0169209661755442</v>
       </c>
       <c r="L23">
-        <v>-0.0327794117769439</v>
+        <v>-0.0304582645174331</v>
       </c>
       <c r="M23">
-        <v>-0.0117567594869892</v>
+        <v>-0.008402286945970399</v>
       </c>
       <c r="N23">
-        <v>-9.97811614402476</v>
+        <v>-8.135079892088561</v>
       </c>
       <c r="O23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q23">
         <v>1811681.523</v>
@@ -2163,19 +2172,19 @@
         <v>5554500.976</v>
       </c>
       <c r="S23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T23" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U23" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2195,37 +2204,37 @@
         <v>36</v>
       </c>
       <c r="F24">
-        <v>0.999999100971773</v>
+        <v>0.9985894065212479</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.9401709401709401</v>
+        <v>0.948717948717949</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.64</v>
+        <v>5.6</v>
       </c>
       <c r="K24">
-        <v>-0.559183135554541</v>
+        <v>-0.335977129626348</v>
       </c>
       <c r="L24">
-        <v>-0.789206807818945</v>
+        <v>-0.570631681338664</v>
       </c>
       <c r="M24">
-        <v>-0.317436113969417</v>
+        <v>-0.156481848655353</v>
       </c>
       <c r="N24">
-        <v>-9.914594602030879</v>
+        <v>-5.9995916004705</v>
       </c>
       <c r="O24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q24">
         <v>1811681.523</v>
@@ -2234,19 +2243,19 @@
         <v>5554500.976</v>
       </c>
       <c r="S24" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2266,37 +2275,37 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.001555186415166</v>
+        <v>0.017254036848505</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.710526315789474</v>
+        <v>0.72463768115942</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.42</v>
+        <v>0.357</v>
       </c>
       <c r="K25">
-        <v>-0.0738582116252615</v>
+        <v>-0.0356943515941219</v>
       </c>
       <c r="L25">
-        <v>-0.122943382265489</v>
+        <v>-0.0836702248919074</v>
       </c>
       <c r="M25">
-        <v>-0.02740544187078</v>
+        <v>-0.0067783266260199</v>
       </c>
       <c r="N25">
-        <v>-17.5852884822051</v>
+        <v>-9.998417813479509</v>
       </c>
       <c r="O25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q25">
         <v>1811681.523</v>
@@ -2305,19 +2314,19 @@
         <v>5554500.976</v>
       </c>
       <c r="S25" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T25" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U25" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W25" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2337,37 +2346,37 @@
         <v>36</v>
       </c>
       <c r="F26">
-        <v>3.2193941401637E-07</v>
+        <v>3.4160970708963E-05</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.923076923076923</v>
+        <v>0.928994082840237</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>7.59</v>
+        <v>7.24</v>
       </c>
       <c r="K26">
-        <v>-0.192616641337386</v>
+        <v>-0.140768836426731</v>
       </c>
       <c r="L26">
-        <v>-0.260892857142857</v>
+        <v>-0.203169988900895</v>
       </c>
       <c r="M26">
-        <v>-0.133459581264641</v>
+        <v>-0.0825982318031707</v>
       </c>
       <c r="N26">
-        <v>-2.53776866057162</v>
+        <v>-1.9443209451206</v>
       </c>
       <c r="O26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P26" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Q26">
         <v>1811681.523</v>
@@ -2376,19 +2385,19 @@
         <v>5554500.976</v>
       </c>
       <c r="S26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V26" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W26" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2408,37 +2417,37 @@
         <v>36</v>
       </c>
       <c r="F27">
-        <v>0.615946477900092</v>
+        <v>0.649223210400431</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.676136363636364</v>
+        <v>0.693181818181818</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0.0525</v>
+        <v>0.0595</v>
       </c>
       <c r="K27">
-        <v>-0.0002504571428571</v>
+        <v>-0.0003998357963875</v>
       </c>
       <c r="L27">
-        <v>-0.0013464443558658</v>
+        <v>-0.0017032847459172</v>
       </c>
       <c r="M27">
-        <v>0.0012024701542938</v>
+        <v>0.0012790828890125</v>
       </c>
       <c r="N27">
-        <v>-0.477061224489796</v>
+        <v>-0.671992935105077</v>
       </c>
       <c r="O27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q27">
         <v>1811681.523</v>
@@ -2447,19 +2456,19 @@
         <v>5554500.976</v>
       </c>
       <c r="S27" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T27" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U27" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W27" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2479,37 +2488,37 @@
         <v>36</v>
       </c>
       <c r="F28">
-        <v>0.992526242556823</v>
+        <v>0.995642147204137</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.7840909090909089</v>
+        <v>0.806818181818182</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>855</v>
+        <v>815</v>
       </c>
       <c r="K28">
-        <v>-34.4671053973997</v>
+        <v>-35.7561491749053</v>
       </c>
       <c r="L28">
-        <v>-65.4531415776593</v>
+        <v>-63.9397992405217</v>
       </c>
       <c r="M28">
-        <v>-10.8042929268797</v>
+        <v>-13.1280358888147</v>
       </c>
       <c r="N28">
-        <v>-4.0312403973567</v>
+        <v>-4.38725756747304</v>
       </c>
       <c r="O28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q28">
         <v>1811681.523</v>
@@ -2518,19 +2527,19 @@
         <v>5554500.976</v>
       </c>
       <c r="S28" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T28" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U28" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V28" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W28" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2547,40 +2556,40 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F29">
-        <v>0.0001757458060435</v>
+        <v>0.0042097848582134</v>
       </c>
       <c r="G29">
-        <v>0.0958083832335329</v>
+        <v>0.0843373493975904</v>
       </c>
       <c r="H29">
-        <v>0.904191616766467</v>
+        <v>0.91566265060241</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>0.0622649705531497</v>
+        <v>0.07099583343482591</v>
       </c>
       <c r="K29">
-        <v>0.0035667789109907</v>
+        <v>0.0030496627045313</v>
       </c>
       <c r="L29">
-        <v>0.0018910596698125</v>
+        <v>0.0011302101308336</v>
       </c>
       <c r="M29">
-        <v>0.0055523689365568</v>
+        <v>0.005179032576183</v>
       </c>
       <c r="N29">
-        <v>5.72838769424314</v>
+        <v>4.29555166407192</v>
       </c>
       <c r="O29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q29">
         <v>1811681.523</v>
@@ -2589,19 +2598,19 @@
         <v>5554500.976</v>
       </c>
       <c r="S29" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T29" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U29" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V29" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2618,16 +2627,16 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F30">
-        <v>0.220169245069128</v>
+        <v>0.150425938566305</v>
       </c>
       <c r="G30">
-        <v>0.0481927710843374</v>
+        <v>0.0568181818181818</v>
       </c>
       <c r="H30">
-        <v>0.379518072289157</v>
+        <v>0.369318181818182</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -2636,22 +2645,22 @@
         <v>0.019</v>
       </c>
       <c r="K30">
-        <v>0.0002496582365003</v>
+        <v>0.0002499429744525</v>
       </c>
       <c r="L30">
-        <v>-0.0002276822603127</v>
+        <v>-0.0001671266390382</v>
       </c>
       <c r="M30">
-        <v>0.000751508989199</v>
+        <v>0.0007521585747666</v>
       </c>
       <c r="N30">
-        <v>1.31399071842285</v>
+        <v>1.31548933922397</v>
       </c>
       <c r="O30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P30" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="Q30">
         <v>1811681.523</v>
@@ -2660,19 +2669,19 @@
         <v>5554500.976</v>
       </c>
       <c r="S30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U30" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V30" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W30" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2692,37 +2701,37 @@
         <v>36</v>
       </c>
       <c r="F31">
-        <v>0.461661088395773</v>
+        <v>0.313366804266443</v>
       </c>
       <c r="G31">
-        <v>0.0542168674698795</v>
+        <v>0.0511363636363636</v>
       </c>
       <c r="H31">
-        <v>0.909638554216867</v>
+        <v>0.9034090909090911</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31">
-        <v>0.334</v>
+        <v>0.3274</v>
       </c>
       <c r="K31">
-        <v>0.000207854199372</v>
+        <v>0.0013366880146386</v>
       </c>
       <c r="L31">
-        <v>-0.0077320601885345</v>
+        <v>-0.0044853807864419</v>
       </c>
       <c r="M31">
-        <v>0.0054931493650231</v>
+        <v>0.0059377248307634</v>
       </c>
       <c r="N31">
-        <v>0.0622317962191783</v>
+        <v>0.408273675821199</v>
       </c>
       <c r="O31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q31">
         <v>1811681.523</v>
@@ -2731,19 +2740,19 @@
         <v>5554500.976</v>
       </c>
       <c r="S31" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T31" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U31" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V31" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W31" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2763,37 +2772,37 @@
         <v>36</v>
       </c>
       <c r="F32">
-        <v>0.084997290041083</v>
+        <v>0.0012903263486719</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.47093023255814</v>
+        <v>0.456140350877193</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>7.24</v>
+        <v>7.26</v>
       </c>
       <c r="K32">
-        <v>-0.0065106486620392</v>
+        <v>-0.0116151562016495</v>
       </c>
       <c r="L32">
-        <v>-0.0132761236749108</v>
+        <v>-0.0185074790596276</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>-0.006122604507583</v>
       </c>
       <c r="N32">
-        <v>-0.0899260864922552</v>
+        <v>-0.159988377433188</v>
       </c>
       <c r="O32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q32">
         <v>1811681.523</v>
@@ -2802,16 +2811,16 @@
         <v>5554500.976</v>
       </c>
       <c r="S32" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T32" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U32" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V32" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2831,7 +2840,7 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>0.161873021713892</v>
+        <v>0.176735867108426</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2843,25 +2852,25 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0.8098</v>
+        <v>0.8525</v>
       </c>
       <c r="K33">
-        <v>0.0114212972744559</v>
+        <v>0.0106403361344538</v>
       </c>
       <c r="L33">
-        <v>-0.0059635783510388</v>
+        <v>-0.0070447593567417</v>
       </c>
       <c r="M33">
-        <v>0.0283701160985274</v>
+        <v>0.0271092315096679</v>
       </c>
       <c r="N33">
-        <v>1.4103849437461</v>
+        <v>1.24813327090367</v>
       </c>
       <c r="O33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P33" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="Q33">
         <v>1811681.523</v>
@@ -2870,19 +2879,19 @@
         <v>5554500.976</v>
       </c>
       <c r="S33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T33" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U33" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V33" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W33" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2902,37 +2911,37 @@
         <v>36</v>
       </c>
       <c r="F34">
-        <v>0.627105234628898</v>
+        <v>0.676082629041498</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.8409090909090911</v>
+        <v>0.835227272727273</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2.042</v>
+        <v>2.05</v>
       </c>
       <c r="K34">
-        <v>-0.0066895604395604</v>
+        <v>-0.0080274725274725</v>
       </c>
       <c r="L34">
-        <v>-0.0535736486835946</v>
+        <v>-0.0535781079850525</v>
       </c>
       <c r="M34">
-        <v>0.0180646690389568</v>
+        <v>0.0178407561073418</v>
       </c>
       <c r="N34">
-        <v>-0.32759845443489</v>
+        <v>-0.391584025730368</v>
       </c>
       <c r="O34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q34">
         <v>1811681.523</v>
@@ -2941,19 +2950,19 @@
         <v>5554500.976</v>
       </c>
       <c r="S34" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U34" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V34" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2973,37 +2982,37 @@
         <v>36</v>
       </c>
       <c r="F35">
-        <v>0.429849430059029</v>
+        <v>0.482378634244152</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.8409090909090911</v>
+        <v>0.8465909090909089</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.1755</v>
+        <v>0.207</v>
       </c>
       <c r="K35">
-        <v>0.0005017170329669999</v>
+        <v>0.0002508585164835</v>
       </c>
       <c r="L35">
-        <v>-0.003442920827875</v>
+        <v>-0.004090842026604</v>
       </c>
       <c r="M35">
-        <v>0.0040076205060861</v>
+        <v>0.0048739020296035</v>
       </c>
       <c r="N35">
-        <v>0.285878651263267</v>
+        <v>0.121187689122472</v>
       </c>
       <c r="O35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q35">
         <v>1811681.523</v>
@@ -3012,19 +3021,19 @@
         <v>5554500.976</v>
       </c>
       <c r="S35" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T35" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U35" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V35" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W35" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3044,37 +3053,37 @@
         <v>36</v>
       </c>
       <c r="F36">
-        <v>0.9999979955987151</v>
+        <v>0.999990297967284</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.943181818181818</v>
+        <v>0.948863636363636</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>6.405</v>
+        <v>6.235</v>
       </c>
       <c r="K36">
-        <v>-0.305057965594615</v>
+        <v>-0.277417740608719</v>
       </c>
       <c r="L36">
-        <v>-0.475996578704558</v>
+        <v>-0.427567997274088</v>
       </c>
       <c r="M36">
-        <v>-0.193722827430725</v>
+        <v>-0.167218357081882</v>
       </c>
       <c r="N36">
-        <v>-4.76280976728517</v>
+        <v>-4.44936231930585</v>
       </c>
       <c r="O36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q36">
         <v>1811681.523</v>
@@ -3083,19 +3092,19 @@
         <v>5554500.976</v>
       </c>
       <c r="S36" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T36" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U36" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V36" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
